--- a/Homework 03/1.xlsx
+++ b/Homework 03/1.xlsx
@@ -121,7 +121,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -168,24 +168,12 @@
       <b val="true"/>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFC9211E"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="5">
@@ -264,7 +252,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -371,7 +359,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FFC9211E"/>
+      <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -391,19 +379,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>1658160</xdr:colOff>
+      <xdr:colOff>1657800</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>28440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="TextShape 1"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvPr id="0" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="1883160"/>
-          <a:ext cx="22620600" cy="3890880"/>
+          <a:ext cx="22620240" cy="3890520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -415,11 +403,22 @@
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
       <xdr:txBody>
         <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -431,32 +430,16 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>({Account number, Code} </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="c9211e"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>PK</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>, Invoice date, Due date, Patient #, Patient Name, Date Admitted, Date discharged, Stuff ID, Stuff Name, Position, Total Charges Due, Code, Description, Total Charge)</a:t>
+            <a:t>Invoice ({Account number, Code} PK, Invoice date, Due date, Patient #, Patient Name, Date Admitted, Date discharged, Stuff ID, Stuff Name, Position, Total Charges Due, Code, Description, Total Charge)</a:t>
           </a:r>
           <a:br/>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
@@ -464,6 +447,11 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -481,107 +469,80 @@
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>Service({Code} </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="c9211e"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>PK</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>, Description)</a:t>
+            <a:t>Service({Code} PK, Description)</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>InvoiceDetail(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>{Account number, Code} </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="c9211e"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>PK</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>, Total Charge)</a:t>
+            <a:t>InvoiceDetail({Account number, Code} PK, Total Charge)</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>Invoice({Account number} </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="c9211e"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>PK</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>, Invoice Date, Due Date, Patient #, Patient Name,Date Admitted, Date Discharged,Stuff ID,Stuff Name,Postition, Total Charges Due</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>)</a:t>
+            <a:t>Invoice({Account number} PK, Invoice Date, Due Date, Patient #, Patient Name,Date Admitted, Date Discharged,Stuff ID,Stuff Name,Postition, Total Charges Due)</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -593,167 +554,141 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>Invoice({Account number} </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="c9211e"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>PK</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>, Invoice Date, Due Date, Patient #, Stuff ID, Total Charges Due)</a:t>
+            <a:t>Invoice({Account number} PK, Invoice Date, Due Date, Patient #, Stuff ID, Total Charges Due)</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>InvoiceDetail({Account number, Code} </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="c9211e"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>PK</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>, Total Charge)</a:t>
+            <a:t>InvoiceDetail({Account number, Code} PK, Total Charge)</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>Patient({Patient #}</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ff0000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t> PK</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>, Patient Name, Date Admitted, Date Discharged)</a:t>
+            <a:t>Patient({Patient #} PK, Patient Name, Date Admitted, Date Discharged)</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>Stuff({Stuff ID} </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="c9211e"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>PK</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>, Stuff Name, Postition</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>)</a:t>
+            <a:t>Stuff({Stuff ID} PK, Stuff Name, Postition)</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>Service({Code} </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="c9211e"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>PK</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>, Description)</a:t>
+            <a:t>Service({Code} PK, Description)</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:br/>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -773,8 +708,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
